--- a/amazon/resources/testexcel.xlsx
+++ b/amazon/resources/testexcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Emp No</t>
   </si>
@@ -34,12 +34,22 @@
   </si>
   <si>
     <t>Thamarai</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>Surya</t>
+  </si>
+  <si>
+    <t>25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -433,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -482,7 +492,12 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
